--- a/src/com/uat/xls/TM_Project_Suite.xlsx
+++ b/src/com/uat/xls/TM_Project_Suite.xlsx
@@ -323,9 +323,6 @@
     <t>Verify Start End Date</t>
   </si>
   <si>
-    <t>1/6/2017</t>
-  </si>
-  <si>
     <t>Projects : Verify start end date validation.</t>
   </si>
   <si>
@@ -335,10 +332,13 @@
     <t>End Date should always be greater or equal to the Start Date!</t>
   </si>
   <si>
-    <t>24/04/2017</t>
-  </si>
-  <si>
     <t>test demo</t>
+  </si>
+  <si>
+    <t>1/11/2017</t>
+  </si>
+  <si>
+    <t>24/10/2017</t>
   </si>
 </sst>
 </file>
@@ -877,10 +877,10 @@
     </row>
     <row r="2" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>58</v>
@@ -1435,16 +1435,16 @@
         <v>53</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
         <v>51</v>

--- a/src/com/uat/xls/TM_Project_Suite.xlsx
+++ b/src/com/uat/xls/TM_Project_Suite.xlsx
@@ -329,9 +329,6 @@
     <t>VerifyStartEndDateValidation</t>
   </si>
   <si>
-    <t>End Date should always be greater or equal to the Start Date!</t>
-  </si>
-  <si>
     <t>test demo</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>24/10/2017</t>
+  </si>
+  <si>
+    <t>End Dat should always be greater or equal to the Start Dat!</t>
   </si>
 </sst>
 </file>
@@ -1361,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,16 +1435,16 @@
         <v>53</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
         <v>79</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
-        <v>76</v>
       </c>
       <c r="J2" t="s">
         <v>51</v>
